--- a/usercode/experiments/experiments.xlsx
+++ b/usercode/experiments/experiments.xlsx
@@ -7,19 +7,31 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="00. Doc 1923" sheetId="1" r:id="rId1"/>
+    <sheet name="00. Doc 0000" sheetId="1" r:id="rId1"/>
+    <sheet name="01. Doc 0001" sheetId="2" r:id="rId2"/>
+    <sheet name="02. Doc 0002" sheetId="3" r:id="rId3"/>
+    <sheet name="03. Doc 0003" sheetId="4" r:id="rId4"/>
+    <sheet name="04. Doc 0004" sheetId="5" r:id="rId5"/>
+    <sheet name="05. Doc 0005" sheetId="6" r:id="rId6"/>
+    <sheet name="06. Doc 0006" sheetId="7" r:id="rId7"/>
+    <sheet name="07. Doc 0007" sheetId="8" r:id="rId8"/>
+    <sheet name="08. Doc 0008" sheetId="9" r:id="rId9"/>
+    <sheet name="09. Doc 0009" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="31">
   <si>
     <t>Chain Metrics</t>
   </si>
   <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>Average Within-Chain Similarity</t>
@@ -50,6 +62,9 @@
   </si>
   <si>
     <t>Global Minimum Within-Chain Similarity</t>
+  </si>
+  <si>
+    <t>Sum (testing)</t>
   </si>
   <si>
     <t>Clustering Metrics</t>
@@ -98,6 +113,9 @@
   </si>
   <si>
     <t>max_sentence_length</t>
+  </si>
+  <si>
+    <t>num_clusters</t>
   </si>
 </sst>
 </file>
@@ -463,219 +481,3239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625"/>
+    <col min="2" max="3" width="9.140625"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="C1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.945</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.945</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1899999976158142</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1899999976158142</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.6639999747276306</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.6639999747276306</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1840000003576279</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1840000003576279</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.6510000228881836</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.6510000228881836</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-0.004</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-0.004</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3">
+        <v>159</v>
+      </c>
+      <c r="K5" s="3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.6079999804496765</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.6079999804496765</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.302</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.6060000061988831</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.6060000061988831</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.5759999752044678</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5759999752044678</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6</v>
+      </c>
+      <c r="K8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.6100000143051147</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.6100000143051147</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3">
+        <v>207</v>
+      </c>
+      <c r="K9" s="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.6420000195503235</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.6420000195503235</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5528</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.302</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.302</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="3">
+        <v>26.705</v>
+      </c>
+      <c r="K11" s="3">
+        <v>26.705</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.227</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.227</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.9370000000000001</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="K12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.1720000058412552</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.6700000166893005</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.1770000010728836</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.6340000033378601</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="3">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.6290000081062317</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1.369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
+      <c r="B13" s="3">
+        <v>0.2809999883174896</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.2809999883174896</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="3">
+        <v>92</v>
+      </c>
+      <c r="K13" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.6019999980926514</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.6019999980926514</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.6549999713897705</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="3">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.6520000100135803</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="3">
-        <v>4250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1.369</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="3">
-        <v>36.957</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.401</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="G13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="3">
-        <v>157</v>
+      <c r="K14" s="3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.966</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.966</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.6510000228881836</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.6510000228881836</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1089999973773956</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1089999973773956</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.6320000290870667</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.6320000290870667</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-0.014</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-0.014</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3">
+        <v>196</v>
+      </c>
+      <c r="K5" s="3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.5680000185966492</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5680000185966492</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.199</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.5680000185966492</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.5680000185966492</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.5379999876022339</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5379999876022339</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3">
+        <v>235</v>
+      </c>
+      <c r="K9" s="3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.6529999971389771</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.6529999971389771</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3">
+        <v>8024</v>
+      </c>
+      <c r="K10" s="3">
+        <v>8024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.199</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.199</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="3">
+        <v>34.145</v>
+      </c>
+      <c r="K11" s="3">
+        <v>34.145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.221</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.221</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>14.74899959564209</v>
+      </c>
+      <c r="C13" s="3">
+        <v>14.74899959564209</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="3">
+        <v>231</v>
+      </c>
+      <c r="K13" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="3">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1309999972581863</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1309999972581863</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.675000011920929</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.675000011920929</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1280000060796738</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1280000060796738</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.6650000214576721</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.6650000214576721</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-0.08599999999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-0.08599999999999999</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3">
+        <v>151</v>
+      </c>
+      <c r="K5" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.6759999990463257</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.6759999990463257</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.411</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.5770000219345093</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.5770000219345093</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.5540000200271606</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5540000200271606</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3">
+        <v>9</v>
+      </c>
+      <c r="K8" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.7250000238418579</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.7250000238418579</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3">
+        <v>213</v>
+      </c>
+      <c r="K9" s="3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.6880000233650208</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.6880000233650208</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5893</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.411</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.411</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="3">
+        <v>27.667</v>
+      </c>
+      <c r="K11" s="3">
+        <v>27.667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.238</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.238</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4.184000015258789</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4.184000015258789</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="3">
+        <v>107</v>
+      </c>
+      <c r="K13" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.944</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.944</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.2669999897480011</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.2669999897480011</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.656000018119812</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.656000018119812</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.2709999978542328</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.2709999978542328</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.6019999980926514</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.6019999980926514</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.017</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.017</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3">
+        <v>68</v>
+      </c>
+      <c r="K5" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.5910000205039978</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5910000205039978</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.324</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.6010000109672546</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.6010000109672546</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3">
+        <v>90</v>
+      </c>
+      <c r="K9" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.6800000071525574</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.6800000071525574</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2133</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.324</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.324</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="3">
+        <v>23.7</v>
+      </c>
+      <c r="K11" s="3">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.213</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.213</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6</v>
+      </c>
+      <c r="K12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>7.560999870300293</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.560999870300293</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="3">
+        <v>83</v>
+      </c>
+      <c r="K13" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.971</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.971</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1490000039339066</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1490000039339066</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.6850000023841858</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.6850000023841858</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1449999958276749</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1449999958276749</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.7059999704360962</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.7059999704360962</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3">
+        <v>88</v>
+      </c>
+      <c r="K5" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.5740000009536743</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5740000009536743</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.125</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.5740000009536743</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.5740000009536743</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3">
+        <v>99</v>
+      </c>
+      <c r="K9" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.6690000295639038</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.6690000295639038</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3561</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.125</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.125</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="3">
+        <v>35.97</v>
+      </c>
+      <c r="K11" s="3">
+        <v>35.97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.472</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.472</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12.58500003814697</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12.58500003814697</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="3">
+        <v>109</v>
+      </c>
+      <c r="K13" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.957</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.957</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1759999990463257</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1759999990463257</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.6370000243186951</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.6370000243186951</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1410000026226044</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1410000026226044</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.5970000028610229</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.5970000028610229</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-0.018</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-0.018</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3">
+        <v>119</v>
+      </c>
+      <c r="K5" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.5789999961853027</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5789999961853027</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.319</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.5680000185966492</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.5680000185966492</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.5419999957084656</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5419999957084656</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10</v>
+      </c>
+      <c r="K8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3">
+        <v>157</v>
+      </c>
+      <c r="K9" s="3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.6690000295639038</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.6690000295639038</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3982</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.319</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.319</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="3">
+        <v>25.363</v>
+      </c>
+      <c r="K11" s="3">
+        <v>25.363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.189</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.189</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2.117000102996826</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2.117000102996826</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="3">
+        <v>91</v>
+      </c>
+      <c r="K13" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="3">
+        <v>7</v>
+      </c>
+      <c r="K14" s="3">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.957</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.957</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1650000065565109</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1650000065565109</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.6629999876022339</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.6629999876022339</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1700000017881393</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1700000017881393</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.6069999933242798</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.6069999933242798</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-0.064</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-0.064</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3">
+        <v>110</v>
+      </c>
+      <c r="K5" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.5090000033378601</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5090000033378601</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.209</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.5090000033378601</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.5090000033378601</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.5090000033378601</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5090000033378601</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7</v>
+      </c>
+      <c r="K8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3">
+        <v>133</v>
+      </c>
+      <c r="K9" s="3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.6919999718666077</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.6919999718666077</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3848</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.209</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.209</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="3">
+        <v>28.932</v>
+      </c>
+      <c r="K11" s="3">
+        <v>28.932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.214</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.214</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12.19099998474121</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12.19099998474121</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="3">
+        <v>140</v>
+      </c>
+      <c r="K13" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="3">
+        <v>6</v>
+      </c>
+      <c r="K14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.965</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.965</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1620000004768372</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1620000004768372</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.6549999713897705</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.6549999713897705</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1449999958276749</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1449999958276749</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3">
+        <v>6</v>
+      </c>
+      <c r="K4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.5770000219345093</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.5770000219345093</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3">
+        <v>49</v>
+      </c>
+      <c r="K5" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.5329999923706055</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5329999923706055</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.327</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.5329999923706055</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.5329999923706055</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.5329999923706055</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5329999923706055</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3">
+        <v>12</v>
+      </c>
+      <c r="K8" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3">
+        <v>65</v>
+      </c>
+      <c r="K9" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.609000027179718</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.609000027179718</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3142</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.327</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.327</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="3">
+        <v>48.338</v>
+      </c>
+      <c r="K11" s="3">
+        <v>48.338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.309</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.309</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6</v>
+      </c>
+      <c r="K12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.845999956130981</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.845999956130981</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="3">
+        <v>167</v>
+      </c>
+      <c r="K13" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.982</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.982</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1700000017881393</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1700000017881393</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.6510000228881836</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.6510000228881836</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1729999929666519</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1729999929666519</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3">
+        <v>7</v>
+      </c>
+      <c r="K4" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.5889999866485596</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.5889999866485596</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-0.224</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-0.224</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3">
+        <v>156</v>
+      </c>
+      <c r="K5" s="3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.5910000205039978</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5910000205039978</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.071</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.5910000205039978</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.5910000205039978</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3">
+        <v>167</v>
+      </c>
+      <c r="K9" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.6899999976158142</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.6899999976158142</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4903</v>
+      </c>
+      <c r="K10" s="3">
+        <v>4903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.071</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.071</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="3">
+        <v>29.359</v>
+      </c>
+      <c r="K11" s="3">
+        <v>29.359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>7.221000194549561</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.221000194549561</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="3">
+        <v>199</v>
+      </c>
+      <c r="K13" s="3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.965</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.965</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.2060000002384186</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.2060000002384186</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.6480000019073486</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.6480000019073486</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.2169999927282333</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.2169999927282333</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3">
+        <v>8</v>
+      </c>
+      <c r="K4" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.6190000176429749</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.6190000176429749</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-0.051</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-0.051</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3">
+        <v>112</v>
+      </c>
+      <c r="K5" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.5929999947547913</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5929999947547913</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.6940000057220459</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.6940000057220459</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.6940000057220459</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.6940000057220459</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6</v>
+      </c>
+      <c r="K8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.492000013589859</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.492000013589859</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3">
+        <v>131</v>
+      </c>
+      <c r="K9" s="3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.6949999928474426</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.6949999928474426</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3884</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="3">
+        <v>29.649</v>
+      </c>
+      <c r="K11" s="3">
+        <v>29.649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.225</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.225</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2.865000009536743</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2.865000009536743</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="3">
+        <v>145</v>
+      </c>
+      <c r="K13" s="3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="3">
+        <v>6</v>
+      </c>
+      <c r="K14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/usercode/experiments/experiments.xlsx
+++ b/usercode/experiments/experiments.xlsx
@@ -16,14 +16,14 @@
     <sheet name="06. Doc 2635" sheetId="7" r:id="rId7"/>
     <sheet name="07. Doc 2581" sheetId="8" r:id="rId8"/>
     <sheet name="08. Doc 0372" sheetId="9" r:id="rId9"/>
-    <sheet name="09. Doc 6415" sheetId="10" r:id="rId10"/>
+    <sheet name="09. Doc 1106" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="357">
   <si>
     <t>Chain Metrics</t>
   </si>
@@ -31,7 +31,7 @@
     <t>default</t>
   </si>
   <si>
-    <t>cluster_no_norm</t>
+    <t>thres_7</t>
   </si>
   <si>
     <t>Average Within-Chain Similarity</t>
@@ -40,18 +40,27 @@
     <t>0.937</t>
   </si>
   <si>
+    <t>0.977</t>
+  </si>
+  <si>
     <t>Average Within-Chain Similarity (len &gt;= 2)</t>
   </si>
   <si>
     <t>0.670</t>
   </si>
   <si>
+    <t>0.727</t>
+  </si>
+  <si>
     <t>Average Within-Chain Similarity (len &gt;= 3)</t>
   </si>
   <si>
     <t>0.634</t>
   </si>
   <si>
+    <t>0.636</t>
+  </si>
+  <si>
     <t>Average Within-Chain Similarity (len &gt;= 4)</t>
   </si>
   <si>
@@ -64,6 +73,9 @@
     <t>0.602</t>
   </si>
   <si>
+    <t>0.618</t>
+  </si>
+  <si>
     <t>Average Within-Chain Similarity (len &gt;= 6)</t>
   </si>
   <si>
@@ -79,30 +91,45 @@
     <t>0.652</t>
   </si>
   <si>
+    <t>0.610</t>
+  </si>
+  <si>
     <t>Average Chain Length</t>
   </si>
   <si>
     <t>1.369</t>
   </si>
   <si>
+    <t>1.186</t>
+  </si>
+  <si>
     <t>Average Similarity to Centroid</t>
   </si>
   <si>
     <t>0.980</t>
   </si>
   <si>
+    <t>0.992</t>
+  </si>
+  <si>
     <t>Average Similarity to Centroid (len &gt;= 2)</t>
   </si>
   <si>
     <t>0.893</t>
   </si>
   <si>
+    <t>0.907</t>
+  </si>
+  <si>
     <t>Average Similarity to Centroid (len &gt;= 6)</t>
   </si>
   <si>
     <t>0.782</t>
   </si>
   <si>
+    <t>0.786</t>
+  </si>
+  <si>
     <t>Clustering Metrics</t>
   </si>
   <si>
@@ -112,12 +139,18 @@
     <t>0.182</t>
   </si>
   <si>
+    <t>0.172</t>
+  </si>
+  <si>
     <t>Flat Silhouette Score</t>
   </si>
   <si>
     <t>0.181</t>
   </si>
   <si>
+    <t>0.179</t>
+  </si>
+  <si>
     <t>Average Within-Cluster Similarity</t>
   </si>
   <si>
@@ -130,9 +163,15 @@
     <t>3.187</t>
   </si>
   <si>
+    <t>3.173</t>
+  </si>
+  <si>
     <t>0.686</t>
   </si>
   <si>
+    <t>0.678</t>
+  </si>
+  <si>
     <t>Stats</t>
   </si>
   <si>
@@ -154,6 +193,9 @@
     <t>84</t>
   </si>
   <si>
+    <t>97</t>
+  </si>
+  <si>
     <t>avg_chain_length</t>
   </si>
   <si>
@@ -169,6 +211,9 @@
     <t>11</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>num_sentences</t>
   </si>
   <si>
@@ -208,51 +253,102 @@
     <t>0.951</t>
   </si>
   <si>
+    <t>0.978</t>
+  </si>
+  <si>
     <t>0.650</t>
   </si>
   <si>
+    <t>0.742</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
     <t>0.613</t>
   </si>
   <si>
+    <t>0.701</t>
+  </si>
+  <si>
     <t>0.576</t>
   </si>
   <si>
+    <t>0.683</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>0.688</t>
   </si>
   <si>
+    <t>0.710</t>
+  </si>
+  <si>
     <t>0.626</t>
   </si>
   <si>
+    <t>0.574</t>
+  </si>
+  <si>
     <t>1.513</t>
   </si>
   <si>
+    <t>1.145</t>
+  </si>
+  <si>
     <t>0.981</t>
   </si>
   <si>
+    <t>0.993</t>
+  </si>
+  <si>
     <t>0.863</t>
   </si>
   <si>
+    <t>0.914</t>
+  </si>
+  <si>
     <t>0.764</t>
   </si>
   <si>
     <t>0.162</t>
   </si>
   <si>
+    <t>0.276</t>
+  </si>
+  <si>
     <t>0.127</t>
   </si>
   <si>
+    <t>0.284</t>
+  </si>
+  <si>
     <t>0.475</t>
   </si>
   <si>
+    <t>0.401</t>
+  </si>
+  <si>
     <t>3.518</t>
   </si>
   <si>
+    <t>2.213</t>
+  </si>
+  <si>
     <t>0.734</t>
   </si>
   <si>
+    <t>0.661</t>
+  </si>
+  <si>
     <t>4355</t>
   </si>
   <si>
+    <t>152</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
@@ -268,66 +364,108 @@
     <t>171</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>0.843</t>
   </si>
   <si>
     <t>0.643</t>
   </si>
   <si>
+    <t>0.767</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
     <t>0.604</t>
   </si>
   <si>
     <t>0.591</t>
   </si>
   <si>
+    <t>0.658</t>
+  </si>
+  <si>
     <t>0.577</t>
   </si>
   <si>
     <t>0.646</t>
   </si>
   <si>
+    <t>0.756</t>
+  </si>
+  <si>
     <t>0.639</t>
   </si>
   <si>
+    <t>0.512</t>
+  </si>
+  <si>
     <t>3.146</t>
   </si>
   <si>
+    <t>1.500</t>
+  </si>
+  <si>
     <t>0.930</t>
   </si>
   <si>
+    <t>0.983</t>
+  </si>
+  <si>
     <t>0.841</t>
   </si>
   <si>
+    <t>0.918</t>
+  </si>
+  <si>
     <t>0.762</t>
   </si>
   <si>
+    <t>0.823</t>
+  </si>
+  <si>
     <t>0.220</t>
   </si>
   <si>
+    <t>0.118</t>
+  </si>
+  <si>
     <t>0.131</t>
   </si>
   <si>
+    <t>0.129</t>
+  </si>
+  <si>
     <t>0.422</t>
   </si>
   <si>
+    <t>0.441</t>
+  </si>
+  <si>
     <t>3.638</t>
   </si>
   <si>
-    <t>0.742</t>
+    <t>5.357</t>
   </si>
   <si>
     <t>4166</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
+    <t>86</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>129</t>
   </si>
   <si>
@@ -346,12 +484,18 @@
     <t>0.903</t>
   </si>
   <si>
-    <t>0.618</t>
+    <t>0.982</t>
+  </si>
+  <si>
+    <t>0.739</t>
   </si>
   <si>
     <t>0.603</t>
   </si>
   <si>
+    <t>0.730</t>
+  </si>
+  <si>
     <t>0.589</t>
   </si>
   <si>
@@ -364,33 +508,60 @@
     <t>0.627</t>
   </si>
   <si>
+    <t>0.532</t>
+  </si>
+  <si>
     <t>1.824</t>
   </si>
   <si>
+    <t>1.081</t>
+  </si>
+  <si>
     <t>0.961</t>
   </si>
   <si>
+    <t>0.995</t>
+  </si>
+  <si>
     <t>0.847</t>
   </si>
   <si>
+    <t>0.927</t>
+  </si>
+  <si>
     <t>0.766</t>
   </si>
   <si>
     <t>0.176</t>
   </si>
   <si>
+    <t>0.191</t>
+  </si>
+  <si>
     <t>0.166</t>
   </si>
   <si>
+    <t>0.190</t>
+  </si>
+  <si>
     <t>0.458</t>
   </si>
   <si>
+    <t>0.499</t>
+  </si>
+  <si>
     <t>2.825</t>
   </si>
   <si>
+    <t>2.929</t>
+  </si>
+  <si>
     <t>0.714</t>
   </si>
   <si>
+    <t>0.735</t>
+  </si>
+  <si>
     <t>3611</t>
   </si>
   <si>
@@ -424,45 +595,78 @@
     <t>0.905</t>
   </si>
   <si>
+    <t>0.974</t>
+  </si>
+  <si>
     <t>0.644</t>
   </si>
   <si>
+    <t>0.733</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
     <t>0.587</t>
   </si>
   <si>
-    <t>-1</t>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>0.580</t>
   </si>
   <si>
     <t>1.488</t>
   </si>
   <si>
+    <t>1.173</t>
+  </si>
+  <si>
     <t>0.970</t>
   </si>
   <si>
     <t>0.888</t>
   </si>
   <si>
+    <t>0.912</t>
+  </si>
+  <si>
     <t>0.802</t>
   </si>
   <si>
     <t>0.123</t>
   </si>
   <si>
+    <t>0.137</t>
+  </si>
+  <si>
     <t>0.151</t>
   </si>
   <si>
+    <t>0.135</t>
+  </si>
+  <si>
     <t>0.407</t>
   </si>
   <si>
+    <t>0.439</t>
+  </si>
+  <si>
     <t>3.363</t>
   </si>
   <si>
-    <t>0.683</t>
+    <t>3.351</t>
+  </si>
+  <si>
+    <t>0.675</t>
   </si>
   <si>
     <t>6389</t>
   </si>
   <si>
+    <t>52</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -481,7 +685,10 @@
     <t>0.942</t>
   </si>
   <si>
-    <t>0.580</t>
+    <t>0.997</t>
+  </si>
+  <si>
+    <t>0.722</t>
   </si>
   <si>
     <t>0.566</t>
@@ -496,42 +703,66 @@
     <t>0.586</t>
   </si>
   <si>
+    <t>0.533</t>
+  </si>
+  <si>
     <t>1.347</t>
   </si>
   <si>
+    <t>1.010</t>
+  </si>
+  <si>
     <t>0.979</t>
   </si>
   <si>
+    <t>0.999</t>
+  </si>
+  <si>
     <t>0.865</t>
   </si>
   <si>
-    <t>0.767</t>
+    <t>0.928</t>
+  </si>
+  <si>
+    <t>0.163</t>
   </si>
   <si>
     <t>0.111</t>
   </si>
   <si>
+    <t>0.164</t>
+  </si>
+  <si>
     <t>0.462</t>
   </si>
   <si>
+    <t>0.414</t>
+  </si>
+  <si>
     <t>3.469</t>
   </si>
   <si>
+    <t>3.676</t>
+  </si>
+  <si>
     <t>0.717</t>
   </si>
   <si>
+    <t>0.664</t>
+  </si>
+  <si>
     <t>272</t>
   </si>
   <si>
     <t>72</t>
   </si>
   <si>
+    <t>96</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>97</t>
-  </si>
-  <si>
     <t>2827</t>
   </si>
   <si>
@@ -547,7 +778,13 @@
     <t>0.696</t>
   </si>
   <si>
-    <t>0.675</t>
+    <t>0.754</t>
+  </si>
+  <si>
+    <t>0.741</t>
+  </si>
+  <si>
+    <t>0.751</t>
   </si>
   <si>
     <t>0.630</t>
@@ -556,27 +793,54 @@
     <t>1.444</t>
   </si>
   <si>
+    <t>1.200</t>
+  </si>
+  <si>
     <t>0.975</t>
   </si>
   <si>
+    <t>0.990</t>
+  </si>
+  <si>
+    <t>0.922</t>
+  </si>
+  <si>
     <t>0.241</t>
   </si>
   <si>
+    <t>0.239</t>
+  </si>
+  <si>
     <t>0.275</t>
   </si>
   <si>
+    <t>0.265</t>
+  </si>
+  <si>
     <t>0.368</t>
   </si>
   <si>
+    <t>0.356</t>
+  </si>
+  <si>
     <t>3.756</t>
   </si>
   <si>
+    <t>3.954</t>
+  </si>
+  <si>
+    <t>0.620</t>
+  </si>
+  <si>
     <t>2635</t>
   </si>
   <si>
     <t>54</t>
   </si>
   <si>
+    <t>65</t>
+  </si>
+  <si>
     <t>78</t>
   </si>
   <si>
@@ -598,6 +862,9 @@
     <t>0.692</t>
   </si>
   <si>
+    <t>0.713</t>
+  </si>
+  <si>
     <t>0.676</t>
   </si>
   <si>
@@ -613,25 +880,43 @@
     <t>1.737</t>
   </si>
   <si>
+    <t>0.984</t>
+  </si>
+  <si>
     <t>0.887</t>
   </si>
   <si>
     <t>0.845</t>
   </si>
   <si>
+    <t>0.838</t>
+  </si>
+  <si>
     <t>0.297</t>
   </si>
   <si>
+    <t>0.321</t>
+  </si>
+  <si>
     <t>0.386</t>
   </si>
   <si>
+    <t>0.400</t>
+  </si>
+  <si>
     <t>0.415</t>
   </si>
   <si>
+    <t>0.430</t>
+  </si>
+  <si>
     <t>3.102</t>
   </si>
   <si>
-    <t>0.664</t>
+    <t>3.127</t>
+  </si>
+  <si>
+    <t>0.677</t>
   </si>
   <si>
     <t>2581</t>
@@ -643,24 +928,27 @@
     <t>57</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
     <t>99</t>
   </si>
   <si>
-    <t>3832</t>
-  </si>
-  <si>
-    <t>38.707</t>
+    <t>3697</t>
+  </si>
+  <si>
+    <t>37.343</t>
   </si>
   <si>
     <t>0.950</t>
   </si>
   <si>
+    <t>0.768</t>
+  </si>
+  <si>
     <t>0.660</t>
   </si>
   <si>
-    <t>0.610</t>
-  </si>
-  <si>
     <t>0.585</t>
   </si>
   <si>
@@ -670,103 +958,142 @@
     <t>1.277</t>
   </si>
   <si>
-    <t>0.984</t>
+    <t>1.103</t>
+  </si>
+  <si>
+    <t>0.994</t>
   </si>
   <si>
     <t>0.897</t>
   </si>
   <si>
+    <t>0.936</t>
+  </si>
+  <si>
     <t>0.755</t>
   </si>
   <si>
     <t>0.197</t>
   </si>
   <si>
+    <t>0.212</t>
+  </si>
+  <si>
     <t>0.210</t>
   </si>
   <si>
+    <t>0.209</t>
+  </si>
+  <si>
     <t>0.330</t>
   </si>
   <si>
+    <t>0.530</t>
+  </si>
+  <si>
     <t>1.979</t>
   </si>
   <si>
+    <t>2.440</t>
+  </si>
+  <si>
     <t>0.611</t>
   </si>
   <si>
+    <t>0.787</t>
+  </si>
+  <si>
     <t>372</t>
   </si>
   <si>
     <t>101</t>
   </si>
   <si>
+    <t>117</t>
+  </si>
+  <si>
     <t>3639</t>
   </si>
   <si>
     <t>28.209</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>0.938</t>
-  </si>
-  <si>
-    <t>0.605</t>
-  </si>
-  <si>
-    <t>0.596</t>
-  </si>
-  <si>
-    <t>0.600</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>1.485</t>
-  </si>
-  <si>
-    <t>0.976</t>
-  </si>
-  <si>
-    <t>0.861</t>
-  </si>
-  <si>
-    <t>0.804</t>
-  </si>
-  <si>
-    <t>0.228</t>
-  </si>
-  <si>
-    <t>0.206</t>
-  </si>
-  <si>
-    <t>3.254</t>
-  </si>
-  <si>
-    <t>0.720</t>
-  </si>
-  <si>
-    <t>6415</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>5716</t>
-  </si>
-  <si>
-    <t>38.884</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>108</t>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>0.672</t>
+  </si>
+  <si>
+    <t>0.550</t>
+  </si>
+  <si>
+    <t>0.621</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>1.284</t>
+  </si>
+  <si>
+    <t>1.092</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>0.874</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>0.771</t>
+  </si>
+  <si>
+    <t>0.173</t>
+  </si>
+  <si>
+    <t>0.105</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>0.470</t>
+  </si>
+  <si>
+    <t>3.355</t>
+  </si>
+  <si>
+    <t>3.446</t>
+  </si>
+  <si>
+    <t>0.719</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>3429</t>
+  </si>
+  <si>
+    <t>36.095</t>
+  </si>
+  <si>
+    <t>94</t>
   </si>
 </sst>
 </file>
@@ -1139,14 +1466,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1156,12 +1480,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1197,281 +1521,281 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1493,14 +1817,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1510,12 +1831,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1548,284 +1869,284 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>228</v>
+        <v>331</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>237</v>
+        <v>342</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>241</v>
+        <v>350</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>241</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>332</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>238</v>
+        <v>344</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>238</v>
+        <v>345</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>242</v>
+        <v>146</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>242</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>229</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>72</v>
+        <v>346</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>206</v>
+        <v>351</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>206</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>230</v>
+        <v>88</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>239</v>
+        <v>347</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>239</v>
+        <v>348</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>233</v>
+        <v>336</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>231</v>
+        <v>333</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>240</v>
+        <v>349</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>232</v>
+        <v>334</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>232</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>243</v>
+        <v>353</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>243</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>332</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>335</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>244</v>
+        <v>354</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>244</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>233</v>
+        <v>336</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>245</v>
+        <v>355</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>245</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>234</v>
+        <v>338</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>246</v>
+        <v>150</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>246</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>235</v>
+        <v>339</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>235</v>
+        <v>340</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>247</v>
+        <v>356</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>247</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>236</v>
+        <v>341</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1847,14 +2168,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1864,12 +2182,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1902,284 +2220,284 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2201,14 +2519,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2218,12 +2533,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2256,284 +2571,284 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2555,14 +2870,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2572,12 +2884,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2610,284 +2922,284 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2909,14 +3221,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2926,12 +3235,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2964,284 +3273,284 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3263,14 +3572,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3280,12 +3586,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -3318,284 +3624,284 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>71</v>
+        <v>233</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>221</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>158</v>
+        <v>229</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3617,14 +3923,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3634,12 +3937,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -3672,284 +3975,284 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>182</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>179</v>
+        <v>263</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>180</v>
+        <v>265</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>181</v>
+        <v>266</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>185</v>
+        <v>273</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>185</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>187</v>
+        <v>275</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>187</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3971,14 +4274,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3988,12 +4288,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4026,284 +4326,284 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>198</v>
+        <v>289</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>203</v>
+        <v>298</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>203</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>189</v>
+        <v>277</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>204</v>
+        <v>299</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>204</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>190</v>
+        <v>279</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>200</v>
+        <v>294</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>201</v>
+        <v>296</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>191</v>
+        <v>280</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>202</v>
+        <v>297</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>192</v>
+        <v>281</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>192</v>
+        <v>281</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>208</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4325,14 +4625,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4342,12 +4639,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4380,284 +4677,284 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>218</v>
+        <v>316</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>223</v>
+        <v>326</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>223</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>306</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>219</v>
+        <v>318</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>219</v>
+        <v>319</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>220</v>
+        <v>321</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>224</v>
+        <v>327</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>224</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>221</v>
+        <v>322</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>221</v>
+        <v>323</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>214</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>212</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>222</v>
+        <v>325</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>212</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>204</v>
+        <v>299</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>213</v>
+        <v>309</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>213</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>225</v>
+        <v>329</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>225</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>214</v>
+        <v>311</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>226</v>
+        <v>330</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>226</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>215</v>
+        <v>312</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>216</v>
+        <v>313</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>216</v>
+        <v>314</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>217</v>
+        <v>315</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/usercode/experiments/experiments.xlsx
+++ b/usercode/experiments/experiments.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="358">
   <si>
     <t>Chain Metrics</t>
   </si>
@@ -31,7 +31,7 @@
     <t>default</t>
   </si>
   <si>
-    <t>thres_7</t>
+    <t>most_similar_pooling</t>
   </si>
   <si>
     <t>Average Within-Chain Similarity</t>
@@ -40,7 +40,7 @@
     <t>0.937</t>
   </si>
   <si>
-    <t>0.977</t>
+    <t>0.939</t>
   </si>
   <si>
     <t>Average Within-Chain Similarity (len &gt;= 2)</t>
@@ -49,7 +49,7 @@
     <t>0.670</t>
   </si>
   <si>
-    <t>0.727</t>
+    <t>0.677</t>
   </si>
   <si>
     <t>Average Within-Chain Similarity (len &gt;= 3)</t>
@@ -58,1030 +58,1033 @@
     <t>0.634</t>
   </si>
   <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>Average Within-Chain Similarity (len &gt;= 4)</t>
+  </si>
+  <si>
+    <t>0.629</t>
+  </si>
+  <si>
+    <t>Average Within-Chain Similarity (len &gt;= 5)</t>
+  </si>
+  <si>
+    <t>0.602</t>
+  </si>
+  <si>
+    <t>Average Within-Chain Similarity (len &gt;= 6)</t>
+  </si>
+  <si>
+    <t>Average Within-Chain Similarity (len = 4)</t>
+  </si>
+  <si>
+    <t>0.655</t>
+  </si>
+  <si>
+    <t>Average Neighbor Chain Distance</t>
+  </si>
+  <si>
+    <t>0.652</t>
+  </si>
+  <si>
+    <t>0.649</t>
+  </si>
+  <si>
+    <t>Average Chain Length</t>
+  </si>
+  <si>
+    <t>1.369</t>
+  </si>
+  <si>
+    <t>1.353</t>
+  </si>
+  <si>
+    <t>Average Similarity to Centroid</t>
+  </si>
+  <si>
+    <t>0.980</t>
+  </si>
+  <si>
+    <t>Average Similarity to Centroid (len &gt;= 2)</t>
+  </si>
+  <si>
+    <t>0.893</t>
+  </si>
+  <si>
+    <t>Average Similarity to Centroid (len &gt;= 6)</t>
+  </si>
+  <si>
+    <t>0.782</t>
+  </si>
+  <si>
+    <t>0.689</t>
+  </si>
+  <si>
+    <t>Clustering Metrics</t>
+  </si>
+  <si>
+    <t>Silhouette Score</t>
+  </si>
+  <si>
+    <t>0.182</t>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t>Flat Silhouette Score</t>
+  </si>
+  <si>
+    <t>0.181</t>
+  </si>
+  <si>
+    <t>0.159</t>
+  </si>
+  <si>
+    <t>Average Within-Cluster Similarity</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>Davies-Bouldin Index</t>
+  </si>
+  <si>
+    <t>3.187</t>
+  </si>
+  <si>
+    <t>3.390</t>
+  </si>
+  <si>
+    <t>0.686</t>
+  </si>
+  <si>
+    <t>0.508</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>1923</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>num_chains</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>avg_chain_length</t>
+  </si>
+  <si>
+    <t>min_chain_length</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>max_chain_length</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>num_sentences</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>num_words</t>
+  </si>
+  <si>
+    <t>4250</t>
+  </si>
+  <si>
+    <t>avg_sentence_length</t>
+  </si>
+  <si>
+    <t>36.957</t>
+  </si>
+  <si>
+    <t>min_sentence_length</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>max_sentence_length</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>num_clusters</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0.951</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>0.650</t>
+  </si>
+  <si>
+    <t>0.671</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>0.658</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>0.657</t>
+  </si>
+  <si>
+    <t>0.632</t>
+  </si>
+  <si>
+    <t>0.688</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>1.513</t>
+  </si>
+  <si>
+    <t>1.359</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>0.863</t>
+  </si>
+  <si>
+    <t>0.700</t>
+  </si>
+  <si>
+    <t>0.764</t>
+  </si>
+  <si>
+    <t>0.690</t>
+  </si>
+  <si>
+    <t>0.162</t>
+  </si>
+  <si>
+    <t>0.156</t>
+  </si>
+  <si>
+    <t>0.127</t>
+  </si>
+  <si>
+    <t>0.155</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t>0.432</t>
+  </si>
+  <si>
+    <t>3.518</t>
+  </si>
+  <si>
+    <t>3.605</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>0.525</t>
+  </si>
+  <si>
+    <t>4355</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>7562</t>
+  </si>
+  <si>
+    <t>43.460</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>0.843</t>
+  </si>
+  <si>
+    <t>0.859</t>
+  </si>
+  <si>
+    <t>0.643</t>
+  </si>
+  <si>
+    <t>0.683</t>
+  </si>
+  <si>
+    <t>0.604</t>
+  </si>
+  <si>
+    <t>0.637</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>0.618</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>0.628</t>
+  </si>
+  <si>
+    <t>0.646</t>
+  </si>
+  <si>
+    <t>0.680</t>
+  </si>
+  <si>
+    <t>0.639</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>3.146</t>
+  </si>
+  <si>
+    <t>2.389</t>
+  </si>
+  <si>
+    <t>0.930</t>
+  </si>
+  <si>
+    <t>0.865</t>
+  </si>
+  <si>
+    <t>0.841</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
+    <t>0.762</t>
+  </si>
+  <si>
+    <t>0.220</t>
+  </si>
+  <si>
+    <t>0.136</t>
+  </si>
+  <si>
+    <t>0.131</t>
+  </si>
+  <si>
+    <t>0.110</t>
+  </si>
+  <si>
+    <t>0.422</t>
+  </si>
+  <si>
+    <t>0.469</t>
+  </si>
+  <si>
+    <t>3.638</t>
+  </si>
+  <si>
+    <t>3.028</t>
+  </si>
+  <si>
+    <t>0.742</t>
+  </si>
+  <si>
+    <t>0.542</t>
+  </si>
+  <si>
+    <t>4166</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>5530</t>
+  </si>
+  <si>
+    <t>42.868</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>0.903</t>
+  </si>
+  <si>
+    <t>0.905</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.589</t>
+  </si>
+  <si>
+    <t>0.607</t>
+  </si>
+  <si>
+    <t>0.549</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>1.824</t>
+  </si>
+  <si>
+    <t>1.500</t>
+  </si>
+  <si>
+    <t>0.961</t>
+  </si>
+  <si>
+    <t>0.910</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>0.673</t>
+  </si>
+  <si>
+    <t>0.766</t>
+  </si>
+  <si>
     <t>0.636</t>
   </si>
   <si>
-    <t>Average Within-Chain Similarity (len &gt;= 4)</t>
-  </si>
-  <si>
-    <t>0.629</t>
-  </si>
-  <si>
-    <t>Average Within-Chain Similarity (len &gt;= 5)</t>
-  </si>
-  <si>
-    <t>0.602</t>
-  </si>
-  <si>
-    <t>0.618</t>
-  </si>
-  <si>
-    <t>Average Within-Chain Similarity (len &gt;= 6)</t>
-  </si>
-  <si>
-    <t>Average Within-Chain Similarity (len = 4)</t>
-  </si>
-  <si>
-    <t>0.655</t>
-  </si>
-  <si>
-    <t>Average Neighbor Chain Distance</t>
-  </si>
-  <si>
-    <t>0.652</t>
+    <t>0.176</t>
+  </si>
+  <si>
+    <t>0.183</t>
+  </si>
+  <si>
+    <t>0.166</t>
+  </si>
+  <si>
+    <t>0.179</t>
+  </si>
+  <si>
+    <t>0.458</t>
+  </si>
+  <si>
+    <t>0.433</t>
+  </si>
+  <si>
+    <t>2.825</t>
+  </si>
+  <si>
+    <t>3.015</t>
+  </si>
+  <si>
+    <t>0.714</t>
+  </si>
+  <si>
+    <t>0.523</t>
+  </si>
+  <si>
+    <t>3611</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>3417</t>
+  </si>
+  <si>
+    <t>36.742</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>0.897</t>
+  </si>
+  <si>
+    <t>0.663</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>0.630</t>
+  </si>
+  <si>
+    <t>1.488</t>
+  </si>
+  <si>
+    <t>1.419</t>
+  </si>
+  <si>
+    <t>0.970</t>
+  </si>
+  <si>
+    <t>0.900</t>
+  </si>
+  <si>
+    <t>0.888</t>
+  </si>
+  <si>
+    <t>0.668</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>0.210</t>
+  </si>
+  <si>
+    <t>0.151</t>
+  </si>
+  <si>
+    <t>0.217</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>0.486</t>
+  </si>
+  <si>
+    <t>3.363</t>
+  </si>
+  <si>
+    <t>2.844</t>
+  </si>
+  <si>
+    <t>0.550</t>
+  </si>
+  <si>
+    <t>6389</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>32.820</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>0.940</t>
+  </si>
+  <si>
+    <t>0.580</t>
+  </si>
+  <si>
+    <t>0.566</t>
+  </si>
+  <si>
+    <t>0.608</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.586</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>1.347</t>
+  </si>
+  <si>
+    <t>1.228</t>
+  </si>
+  <si>
+    <t>0.979</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>0.767</t>
+  </si>
+  <si>
+    <t>0.139</t>
+  </si>
+  <si>
+    <t>0.111</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>0.477</t>
+  </si>
+  <si>
+    <t>3.469</t>
+  </si>
+  <si>
+    <t>3.045</t>
+  </si>
+  <si>
+    <t>0.717</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>2827</t>
+  </si>
+  <si>
+    <t>29.144</t>
+  </si>
+  <si>
+    <t>0.921</t>
+  </si>
+  <si>
+    <t>0.918</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>1.444</t>
+  </si>
+  <si>
+    <t>1.418</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>0.922</t>
+  </si>
+  <si>
+    <t>0.716</t>
+  </si>
+  <si>
+    <t>0.241</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.275</t>
+  </si>
+  <si>
+    <t>0.247</t>
+  </si>
+  <si>
+    <t>0.368</t>
+  </si>
+  <si>
+    <t>0.372</t>
+  </si>
+  <si>
+    <t>3.756</t>
+  </si>
+  <si>
+    <t>0.460</t>
+  </si>
+  <si>
+    <t>2635</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>28.295</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>0.919</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.672</t>
+  </si>
+  <si>
+    <t>0.676</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.684</t>
+  </si>
+  <si>
+    <t>0.642</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>1.737</t>
+  </si>
+  <si>
+    <t>1.707</t>
+  </si>
+  <si>
+    <t>0.887</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>0.732</t>
+  </si>
+  <si>
+    <t>0.297</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>0.386</t>
+  </si>
+  <si>
+    <t>0.299</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>0.393</t>
+  </si>
+  <si>
+    <t>3.102</t>
+  </si>
+  <si>
+    <t>3.135</t>
+  </si>
+  <si>
+    <t>0.664</t>
+  </si>
+  <si>
+    <t>0.520</t>
+  </si>
+  <si>
+    <t>2581</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>3697</t>
+  </si>
+  <si>
+    <t>37.343</t>
+  </si>
+  <si>
+    <t>0.950</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>0.660</t>
+  </si>
+  <si>
+    <t>0.682</t>
   </si>
   <si>
     <t>0.610</t>
   </si>
   <si>
-    <t>Average Chain Length</t>
-  </si>
-  <si>
-    <t>1.369</t>
-  </si>
-  <si>
-    <t>1.186</t>
-  </si>
-  <si>
-    <t>Average Similarity to Centroid</t>
-  </si>
-  <si>
-    <t>0.980</t>
-  </si>
-  <si>
-    <t>0.992</t>
-  </si>
-  <si>
-    <t>Average Similarity to Centroid (len &gt;= 2)</t>
-  </si>
-  <si>
-    <t>0.893</t>
-  </si>
-  <si>
-    <t>0.907</t>
-  </si>
-  <si>
-    <t>Average Similarity to Centroid (len &gt;= 6)</t>
-  </si>
-  <si>
-    <t>0.782</t>
-  </si>
-  <si>
-    <t>0.786</t>
-  </si>
-  <si>
-    <t>Clustering Metrics</t>
-  </si>
-  <si>
-    <t>Silhouette Score</t>
-  </si>
-  <si>
-    <t>0.182</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>Flat Silhouette Score</t>
-  </si>
-  <si>
-    <t>0.181</t>
-  </si>
-  <si>
-    <t>0.179</t>
-  </si>
-  <si>
-    <t>Average Within-Cluster Similarity</t>
-  </si>
-  <si>
-    <t>0.419</t>
-  </si>
-  <si>
-    <t>Davies-Bouldin Index</t>
-  </si>
-  <si>
-    <t>3.187</t>
-  </si>
-  <si>
-    <t>3.173</t>
-  </si>
-  <si>
-    <t>0.686</t>
+    <t>0.638</t>
+  </si>
+  <si>
+    <t>0.585</t>
+  </si>
+  <si>
+    <t>0.622</t>
+  </si>
+  <si>
+    <t>0.640</t>
+  </si>
+  <si>
+    <t>1.277</t>
+  </si>
+  <si>
+    <t>1.217</t>
+  </si>
+  <si>
+    <t>0.984</t>
+  </si>
+  <si>
+    <t>0.955</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.755</t>
+  </si>
+  <si>
+    <t>0.158</t>
+  </si>
+  <si>
+    <t>0.330</t>
+  </si>
+  <si>
+    <t>1.979</t>
+  </si>
+  <si>
+    <t>3.198</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>0.512</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>3639</t>
+  </si>
+  <si>
+    <t>28.209</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>0.699</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>0.621</t>
+  </si>
+  <si>
+    <t>0.661</t>
+  </si>
+  <si>
+    <t>1.284</t>
+  </si>
+  <si>
+    <t>1.218</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>0.963</t>
+  </si>
+  <si>
+    <t>0.874</t>
+  </si>
+  <si>
+    <t>0.771</t>
+  </si>
+  <si>
+    <t>0.173</t>
+  </si>
+  <si>
+    <t>0.170</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.482</t>
+  </si>
+  <si>
+    <t>3.355</t>
+  </si>
+  <si>
+    <t>3.132</t>
   </si>
   <si>
     <t>0.678</t>
   </si>
   <si>
-    <t>Stats</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>1923</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>num_chains</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>avg_chain_length</t>
-  </si>
-  <si>
-    <t>min_chain_length</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>max_chain_length</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>num_sentences</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>num_words</t>
-  </si>
-  <si>
-    <t>4250</t>
-  </si>
-  <si>
-    <t>avg_sentence_length</t>
-  </si>
-  <si>
-    <t>36.957</t>
-  </si>
-  <si>
-    <t>min_sentence_length</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>max_sentence_length</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>num_clusters</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>0.951</t>
-  </si>
-  <si>
-    <t>0.978</t>
-  </si>
-  <si>
-    <t>0.650</t>
-  </si>
-  <si>
-    <t>0.742</t>
-  </si>
-  <si>
-    <t>0.697</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>0.701</t>
-  </si>
-  <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>0.683</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>0.688</t>
-  </si>
-  <si>
-    <t>0.710</t>
-  </si>
-  <si>
-    <t>0.626</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>1.513</t>
-  </si>
-  <si>
-    <t>1.145</t>
-  </si>
-  <si>
-    <t>0.981</t>
-  </si>
-  <si>
-    <t>0.993</t>
-  </si>
-  <si>
-    <t>0.863</t>
-  </si>
-  <si>
-    <t>0.914</t>
-  </si>
-  <si>
-    <t>0.764</t>
-  </si>
-  <si>
-    <t>0.162</t>
-  </si>
-  <si>
-    <t>0.276</t>
-  </si>
-  <si>
-    <t>0.127</t>
-  </si>
-  <si>
-    <t>0.284</t>
-  </si>
-  <si>
-    <t>0.475</t>
-  </si>
-  <si>
-    <t>0.401</t>
-  </si>
-  <si>
-    <t>3.518</t>
-  </si>
-  <si>
-    <t>2.213</t>
-  </si>
-  <si>
-    <t>0.734</t>
-  </si>
-  <si>
-    <t>0.661</t>
-  </si>
-  <si>
-    <t>4355</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>7562</t>
-  </si>
-  <si>
-    <t>43.460</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0.843</t>
-  </si>
-  <si>
-    <t>0.643</t>
-  </si>
-  <si>
-    <t>0.767</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.604</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.658</t>
-  </si>
-  <si>
-    <t>0.577</t>
-  </si>
-  <si>
-    <t>0.646</t>
-  </si>
-  <si>
-    <t>0.756</t>
-  </si>
-  <si>
-    <t>0.639</t>
-  </si>
-  <si>
-    <t>0.512</t>
-  </si>
-  <si>
-    <t>3.146</t>
-  </si>
-  <si>
-    <t>1.500</t>
-  </si>
-  <si>
-    <t>0.930</t>
-  </si>
-  <si>
-    <t>0.983</t>
-  </si>
-  <si>
-    <t>0.841</t>
-  </si>
-  <si>
-    <t>0.918</t>
-  </si>
-  <si>
-    <t>0.762</t>
-  </si>
-  <si>
-    <t>0.823</t>
-  </si>
-  <si>
-    <t>0.220</t>
-  </si>
-  <si>
-    <t>0.118</t>
-  </si>
-  <si>
-    <t>0.131</t>
-  </si>
-  <si>
-    <t>0.129</t>
-  </si>
-  <si>
-    <t>0.422</t>
-  </si>
-  <si>
-    <t>0.441</t>
-  </si>
-  <si>
-    <t>3.638</t>
-  </si>
-  <si>
-    <t>5.357</t>
-  </si>
-  <si>
-    <t>4166</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>1106</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>5530</t>
-  </si>
-  <si>
-    <t>42.868</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>0.903</t>
-  </si>
-  <si>
-    <t>0.982</t>
-  </si>
-  <si>
-    <t>0.739</t>
-  </si>
-  <si>
-    <t>0.603</t>
-  </si>
-  <si>
-    <t>0.730</t>
-  </si>
-  <si>
-    <t>0.589</t>
-  </si>
-  <si>
-    <t>0.549</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>0.627</t>
-  </si>
-  <si>
-    <t>0.532</t>
-  </si>
-  <si>
-    <t>1.824</t>
-  </si>
-  <si>
-    <t>1.081</t>
-  </si>
-  <si>
-    <t>0.961</t>
-  </si>
-  <si>
-    <t>0.995</t>
-  </si>
-  <si>
-    <t>0.847</t>
-  </si>
-  <si>
-    <t>0.927</t>
-  </si>
-  <si>
-    <t>0.766</t>
-  </si>
-  <si>
-    <t>0.176</t>
-  </si>
-  <si>
-    <t>0.191</t>
-  </si>
-  <si>
-    <t>0.166</t>
-  </si>
-  <si>
-    <t>0.190</t>
-  </si>
-  <si>
-    <t>0.458</t>
-  </si>
-  <si>
-    <t>0.499</t>
-  </si>
-  <si>
-    <t>2.825</t>
-  </si>
-  <si>
-    <t>2.929</t>
-  </si>
-  <si>
-    <t>0.714</t>
-  </si>
-  <si>
-    <t>0.735</t>
-  </si>
-  <si>
-    <t>3611</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>3417</t>
-  </si>
-  <si>
-    <t>36.742</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>0.905</t>
-  </si>
-  <si>
-    <t>0.974</t>
-  </si>
-  <si>
-    <t>0.644</t>
-  </si>
-  <si>
-    <t>0.733</t>
-  </si>
-  <si>
-    <t>0.687</t>
-  </si>
-  <si>
-    <t>0.587</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.580</t>
-  </si>
-  <si>
-    <t>1.488</t>
-  </si>
-  <si>
-    <t>1.173</t>
-  </si>
-  <si>
-    <t>0.970</t>
-  </si>
-  <si>
-    <t>0.888</t>
-  </si>
-  <si>
-    <t>0.912</t>
-  </si>
-  <si>
-    <t>0.802</t>
-  </si>
-  <si>
-    <t>0.123</t>
-  </si>
-  <si>
-    <t>0.137</t>
-  </si>
-  <si>
-    <t>0.151</t>
-  </si>
-  <si>
-    <t>0.135</t>
-  </si>
-  <si>
-    <t>0.407</t>
-  </si>
-  <si>
-    <t>0.439</t>
-  </si>
-  <si>
-    <t>3.363</t>
-  </si>
-  <si>
-    <t>3.351</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>6389</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>32.820</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>0.942</t>
-  </si>
-  <si>
-    <t>0.997</t>
-  </si>
-  <si>
-    <t>0.722</t>
-  </si>
-  <si>
-    <t>0.566</t>
-  </si>
-  <si>
-    <t>0.545</t>
-  </si>
-  <si>
-    <t>0.608</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.533</t>
-  </si>
-  <si>
-    <t>1.347</t>
-  </si>
-  <si>
-    <t>1.010</t>
-  </si>
-  <si>
-    <t>0.979</t>
-  </si>
-  <si>
-    <t>0.999</t>
-  </si>
-  <si>
-    <t>0.865</t>
-  </si>
-  <si>
-    <t>0.928</t>
-  </si>
-  <si>
-    <t>0.163</t>
-  </si>
-  <si>
-    <t>0.111</t>
-  </si>
-  <si>
-    <t>0.164</t>
-  </si>
-  <si>
-    <t>0.462</t>
-  </si>
-  <si>
-    <t>0.414</t>
-  </si>
-  <si>
-    <t>3.469</t>
-  </si>
-  <si>
-    <t>3.676</t>
-  </si>
-  <si>
-    <t>0.717</t>
-  </si>
-  <si>
-    <t>0.664</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2827</t>
-  </si>
-  <si>
-    <t>29.144</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>0.921</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.754</t>
-  </si>
-  <si>
-    <t>0.741</t>
-  </si>
-  <si>
-    <t>0.751</t>
-  </si>
-  <si>
-    <t>0.630</t>
-  </si>
-  <si>
-    <t>1.444</t>
-  </si>
-  <si>
-    <t>1.200</t>
-  </si>
-  <si>
-    <t>0.975</t>
-  </si>
-  <si>
-    <t>0.990</t>
-  </si>
-  <si>
-    <t>0.922</t>
-  </si>
-  <si>
-    <t>0.241</t>
-  </si>
-  <si>
-    <t>0.239</t>
-  </si>
-  <si>
-    <t>0.275</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.368</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>3.756</t>
-  </si>
-  <si>
-    <t>3.954</t>
-  </si>
-  <si>
-    <t>0.620</t>
-  </si>
-  <si>
-    <t>2635</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>28.295</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>0.917</t>
-  </si>
-  <si>
-    <t>0.685</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.713</t>
-  </si>
-  <si>
-    <t>0.676</t>
-  </si>
-  <si>
-    <t>0.684</t>
-  </si>
-  <si>
-    <t>0.642</t>
-  </si>
-  <si>
-    <t>0.667</t>
-  </si>
-  <si>
-    <t>1.737</t>
-  </si>
-  <si>
-    <t>0.984</t>
-  </si>
-  <si>
-    <t>0.887</t>
-  </si>
-  <si>
-    <t>0.845</t>
-  </si>
-  <si>
-    <t>0.838</t>
-  </si>
-  <si>
-    <t>0.297</t>
-  </si>
-  <si>
-    <t>0.321</t>
-  </si>
-  <si>
-    <t>0.386</t>
-  </si>
-  <si>
-    <t>0.400</t>
-  </si>
-  <si>
-    <t>0.415</t>
-  </si>
-  <si>
-    <t>0.430</t>
-  </si>
-  <si>
-    <t>3.102</t>
-  </si>
-  <si>
-    <t>3.127</t>
-  </si>
-  <si>
-    <t>0.677</t>
-  </si>
-  <si>
-    <t>2581</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>3697</t>
-  </si>
-  <si>
-    <t>37.343</t>
-  </si>
-  <si>
-    <t>0.950</t>
-  </si>
-  <si>
-    <t>0.768</t>
-  </si>
-  <si>
-    <t>0.660</t>
-  </si>
-  <si>
-    <t>0.585</t>
-  </si>
-  <si>
-    <t>0.622</t>
-  </si>
-  <si>
-    <t>1.277</t>
-  </si>
-  <si>
-    <t>1.103</t>
-  </si>
-  <si>
-    <t>0.994</t>
-  </si>
-  <si>
-    <t>0.897</t>
-  </si>
-  <si>
-    <t>0.936</t>
-  </si>
-  <si>
-    <t>0.755</t>
-  </si>
-  <si>
-    <t>0.197</t>
-  </si>
-  <si>
-    <t>0.212</t>
-  </si>
-  <si>
-    <t>0.210</t>
-  </si>
-  <si>
-    <t>0.209</t>
-  </si>
-  <si>
-    <t>0.330</t>
-  </si>
-  <si>
-    <t>0.530</t>
-  </si>
-  <si>
-    <t>1.979</t>
-  </si>
-  <si>
-    <t>2.440</t>
-  </si>
-  <si>
-    <t>0.611</t>
-  </si>
-  <si>
-    <t>0.787</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>3639</t>
-  </si>
-  <si>
-    <t>28.209</t>
-  </si>
-  <si>
-    <t>0.965</t>
-  </si>
-  <si>
-    <t>0.672</t>
-  </si>
-  <si>
-    <t>0.550</t>
-  </si>
-  <si>
-    <t>0.621</t>
-  </si>
-  <si>
-    <t>0.625</t>
-  </si>
-  <si>
-    <t>1.284</t>
-  </si>
-  <si>
-    <t>1.092</t>
-  </si>
-  <si>
-    <t>0.986</t>
-  </si>
-  <si>
-    <t>0.874</t>
-  </si>
-  <si>
-    <t>0.941</t>
-  </si>
-  <si>
-    <t>0.771</t>
-  </si>
-  <si>
-    <t>0.173</t>
-  </si>
-  <si>
-    <t>0.105</t>
-  </si>
-  <si>
-    <t>0.148</t>
-  </si>
-  <si>
-    <t>0.115</t>
-  </si>
-  <si>
-    <t>0.470</t>
-  </si>
-  <si>
-    <t>3.355</t>
-  </si>
-  <si>
-    <t>3.446</t>
-  </si>
-  <si>
-    <t>0.719</t>
-  </si>
-  <si>
-    <t>1106</t>
-  </si>
-  <si>
     <t>74</t>
-  </si>
-  <si>
-    <t>87</t>
   </si>
   <si>
     <t>95</t>
@@ -1466,11 +1469,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="3" width="9.140625"/>
+    <col min="2" max="2" width="9.140625"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="7" width="9.140625"/>
+    <col min="6" max="6" width="9.140625"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="11" width="9.140625"/>
+    <col min="10" max="10" width="9.140625"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1480,12 +1486,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1524,22 +1530,22 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1553,22 +1559,22 @@
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1582,22 +1588,22 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1608,25 +1614,25 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1637,165 +1643,165 @@
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1817,11 +1823,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="3" width="9.140625"/>
+    <col min="2" max="2" width="9.140625"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="7" width="9.140625"/>
+    <col min="6" max="6" width="9.140625"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="11" width="9.140625"/>
+    <col min="10" max="10" width="9.140625"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1831,12 +1840,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1872,25 +1881,25 @@
         <v>331</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1898,28 +1907,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>146</v>
+        <v>352</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>146</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1927,28 +1936,28 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>104</v>
+        <v>333</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>346</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>352</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1956,13 +1965,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>347</v>
@@ -1971,13 +1980,13 @@
         <v>348</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1985,168 +1994,168 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>333</v>
+        <v>212</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>334</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>48</v>
+        <v>349</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>333</v>
+        <v>212</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>84</v>
+        <v>335</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>165</v>
+        <v>340</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>340</v>
+        <v>179</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2168,11 +2177,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="3" width="9.140625"/>
+    <col min="2" max="2" width="9.140625"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="7" width="9.140625"/>
+    <col min="6" max="6" width="9.140625"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="11" width="9.140625"/>
+    <col min="10" max="10" width="9.140625"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2182,12 +2194,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2220,28 +2232,28 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2249,28 +2261,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2281,25 +2293,25 @@
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2307,28 +2319,28 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2336,168 +2348,168 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2519,11 +2531,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="3" width="9.140625"/>
+    <col min="2" max="2" width="9.140625"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="7" width="9.140625"/>
+    <col min="6" max="6" width="9.140625"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="11" width="9.140625"/>
+    <col min="10" max="10" width="9.140625"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2533,12 +2548,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2571,28 +2586,28 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2600,28 +2615,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2629,28 +2644,28 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2658,22 +2673,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>126</v>
@@ -2687,53 +2702,53 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>122</v>
@@ -2742,18 +2757,18 @@
         <v>123</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>124</v>
@@ -2762,18 +2777,18 @@
         <v>125</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>126</v>
@@ -2782,18 +2797,18 @@
         <v>127</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>128</v>
@@ -2802,18 +2817,18 @@
         <v>129</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>130</v>
@@ -2822,33 +2837,33 @@
         <v>131</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2870,11 +2885,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="3" width="9.140625"/>
+    <col min="2" max="2" width="9.140625"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="7" width="9.140625"/>
+    <col min="6" max="6" width="9.140625"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="11" width="9.140625"/>
+    <col min="10" max="10" width="9.140625"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2884,12 +2902,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2922,28 +2940,28 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2951,28 +2969,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2980,28 +2998,28 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3012,25 +3030,25 @@
         <v>157</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3038,168 +3056,168 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3221,11 +3239,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="3" width="9.140625"/>
+    <col min="2" max="2" width="9.140625"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="7" width="9.140625"/>
+    <col min="6" max="6" width="9.140625"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="11" width="9.140625"/>
+    <col min="10" max="10" width="9.140625"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3235,12 +3256,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -3273,28 +3294,28 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3302,28 +3323,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3331,28 +3352,28 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>193</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3363,19 +3384,19 @@
         <v>194</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>197</v>
@@ -3395,56 +3416,56 @@
         <v>195</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>215</v>
@@ -3455,7 +3476,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -3464,7 +3485,7 @@
         <v>196</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>216</v>
@@ -3475,7 +3496,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>197</v>
@@ -3484,7 +3505,7 @@
         <v>198</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>217</v>
@@ -3495,36 +3516,36 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>218</v>
@@ -3535,22 +3556,22 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3572,11 +3593,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="3" width="9.140625"/>
+    <col min="2" max="2" width="9.140625"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="7" width="9.140625"/>
+    <col min="6" max="6" width="9.140625"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="11" width="9.140625"/>
+    <col min="10" max="10" width="9.140625"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3586,12 +3610,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -3630,22 +3654,22 @@
         <v>220</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3653,28 +3677,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3682,28 +3706,28 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3714,19 +3738,19 @@
         <v>222</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>227</v>
@@ -3740,73 +3764,73 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>56</v>
+        <v>244</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>56</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>225</v>
@@ -3815,18 +3839,18 @@
         <v>226</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>227</v>
@@ -3835,73 +3859,73 @@
         <v>228</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>229</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>116</v>
+        <v>231</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3923,11 +3947,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="3" width="9.140625"/>
+    <col min="2" max="2" width="9.140625"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="7" width="9.140625"/>
+    <col min="6" max="6" width="9.140625"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="11" width="9.140625"/>
+    <col min="10" max="10" width="9.140625"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3937,12 +3964,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -3975,28 +4002,28 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4004,28 +4031,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4033,28 +4060,28 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>252</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>270</v>
+        <v>146</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4062,28 +4089,28 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4091,168 +4118,168 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4274,11 +4301,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="3" width="9.140625"/>
+    <col min="2" max="2" width="9.140625"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="7" width="9.140625"/>
+    <col min="6" max="6" width="9.140625"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="11" width="9.140625"/>
+    <col min="10" max="10" width="9.140625"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4288,12 +4318,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4326,22 +4356,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>164</v>
+        <v>273</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>290</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>298</v>
@@ -4355,22 +4385,22 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>299</v>
@@ -4384,22 +4414,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>300</v>
@@ -4416,25 +4446,25 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>277</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4442,62 +4472,62 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>279</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>281</v>
+        <v>93</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>302</v>
@@ -4508,16 +4538,16 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>303</v>
@@ -4528,16 +4558,16 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>304</v>
@@ -4548,62 +4578,62 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="I14" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4625,11 +4655,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="3" width="9.140625"/>
+    <col min="2" max="2" width="9.140625"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="7" width="9.140625"/>
+    <col min="6" max="6" width="9.140625"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="11" width="9.140625"/>
+    <col min="10" max="10" width="9.140625"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4639,12 +4672,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4680,19 +4713,19 @@
         <v>305</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>306</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>317</v>
+        <v>206</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>326</v>
@@ -4706,28 +4739,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>306</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>318</v>
+        <v>205</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4738,25 +4771,25 @@
         <v>307</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>308</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>321</v>
+        <v>137</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>327</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>328</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4764,13 +4797,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>309</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>310</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>322</v>
@@ -4779,13 +4812,13 @@
         <v>323</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4793,13 +4826,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>324</v>
@@ -4808,153 +4841,153 @@
         <v>325</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>299</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>84</v>
+        <v>310</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>313</v>
+        <v>192</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>244</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/usercode/experiments/experiments.xlsx
+++ b/usercode/experiments/experiments.xlsx
@@ -23,15 +23,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="292">
   <si>
     <t>Chain Metrics</t>
   </si>
   <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>most_similar_pooling</t>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>gpu</t>
   </si>
   <si>
     <t>Average Within-Chain Similarity</t>
@@ -40,27 +40,18 @@
     <t>0.937</t>
   </si>
   <si>
-    <t>0.939</t>
-  </si>
-  <si>
     <t>Average Within-Chain Similarity (len &gt;= 2)</t>
   </si>
   <si>
     <t>0.670</t>
   </si>
   <si>
-    <t>0.677</t>
-  </si>
-  <si>
     <t>Average Within-Chain Similarity (len &gt;= 3)</t>
   </si>
   <si>
     <t>0.634</t>
   </si>
   <si>
-    <t>0.635</t>
-  </si>
-  <si>
     <t>Average Within-Chain Similarity (len &gt;= 4)</t>
   </si>
   <si>
@@ -88,18 +79,12 @@
     <t>0.652</t>
   </si>
   <si>
-    <t>0.649</t>
-  </si>
-  <si>
     <t>Average Chain Length</t>
   </si>
   <si>
     <t>1.369</t>
   </si>
   <si>
-    <t>1.353</t>
-  </si>
-  <si>
     <t>Average Similarity to Centroid</t>
   </si>
   <si>
@@ -118,964 +103,781 @@
     <t>0.782</t>
   </si>
   <si>
+    <t>Clustering Metrics</t>
+  </si>
+  <si>
+    <t>Silhouette Score</t>
+  </si>
+  <si>
+    <t>0.182</t>
+  </si>
+  <si>
+    <t>0.183</t>
+  </si>
+  <si>
+    <t>Flat Silhouette Score</t>
+  </si>
+  <si>
+    <t>0.181</t>
+  </si>
+  <si>
+    <t>0.177</t>
+  </si>
+  <si>
+    <t>Average Within-Cluster Similarity</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>0.410</t>
+  </si>
+  <si>
+    <t>Davies-Bouldin Index</t>
+  </si>
+  <si>
+    <t>3.187</t>
+  </si>
+  <si>
+    <t>3.352</t>
+  </si>
+  <si>
+    <t>0.686</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>1923</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>num_chains</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>avg_chain_length</t>
+  </si>
+  <si>
+    <t>min_chain_length</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>max_chain_length</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>num_sentences</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>num_words</t>
+  </si>
+  <si>
+    <t>4250</t>
+  </si>
+  <si>
+    <t>avg_sentence_length</t>
+  </si>
+  <si>
+    <t>36.957</t>
+  </si>
+  <si>
+    <t>min_sentence_length</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>max_sentence_length</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>num_clusters</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0.951</t>
+  </si>
+  <si>
+    <t>0.650</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>0.688</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>1.513</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>0.863</t>
+  </si>
+  <si>
+    <t>0.764</t>
+  </si>
+  <si>
+    <t>0.162</t>
+  </si>
+  <si>
+    <t>0.259</t>
+  </si>
+  <si>
+    <t>0.127</t>
+  </si>
+  <si>
+    <t>0.282</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t>0.394</t>
+  </si>
+  <si>
+    <t>3.518</t>
+  </si>
+  <si>
+    <t>2.414</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>0.657</t>
+  </si>
+  <si>
+    <t>4355</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>7562</t>
+  </si>
+  <si>
+    <t>43.460</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0.843</t>
+  </si>
+  <si>
+    <t>0.643</t>
+  </si>
+  <si>
+    <t>0.604</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>0.646</t>
+  </si>
+  <si>
+    <t>0.639</t>
+  </si>
+  <si>
+    <t>3.146</t>
+  </si>
+  <si>
+    <t>0.930</t>
+  </si>
+  <si>
+    <t>0.841</t>
+  </si>
+  <si>
+    <t>0.762</t>
+  </si>
+  <si>
+    <t>0.220</t>
+  </si>
+  <si>
+    <t>0.186</t>
+  </si>
+  <si>
+    <t>0.131</t>
+  </si>
+  <si>
+    <t>0.135</t>
+  </si>
+  <si>
+    <t>0.422</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>3.638</t>
+  </si>
+  <si>
+    <t>3.763</t>
+  </si>
+  <si>
+    <t>0.742</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>4166</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>5530</t>
+  </si>
+  <si>
+    <t>42.868</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>0.903</t>
+  </si>
+  <si>
+    <t>0.618</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.589</t>
+  </si>
+  <si>
+    <t>0.549</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>1.824</t>
+  </si>
+  <si>
+    <t>0.961</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>0.766</t>
+  </si>
+  <si>
+    <t>0.176</t>
+  </si>
+  <si>
+    <t>0.229</t>
+  </si>
+  <si>
+    <t>0.166</t>
+  </si>
+  <si>
+    <t>0.199</t>
+  </si>
+  <si>
+    <t>0.458</t>
+  </si>
+  <si>
+    <t>0.476</t>
+  </si>
+  <si>
+    <t>2.825</t>
+  </si>
+  <si>
+    <t>2.704</t>
+  </si>
+  <si>
+    <t>0.714</t>
+  </si>
+  <si>
+    <t>0.731</t>
+  </si>
+  <si>
+    <t>3611</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>3417</t>
+  </si>
+  <si>
+    <t>36.742</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0.905</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>1.488</t>
+  </si>
+  <si>
+    <t>0.970</t>
+  </si>
+  <si>
+    <t>0.888</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>0.193</t>
+  </si>
+  <si>
+    <t>0.151</t>
+  </si>
+  <si>
+    <t>0.205</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>3.363</t>
+  </si>
+  <si>
+    <t>2.750</t>
+  </si>
+  <si>
+    <t>0.683</t>
+  </si>
+  <si>
+    <t>0.755</t>
+  </si>
+  <si>
+    <t>6389</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>32.820</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>0.580</t>
+  </si>
+  <si>
+    <t>0.566</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.608</t>
+  </si>
+  <si>
+    <t>0.586</t>
+  </si>
+  <si>
+    <t>1.347</t>
+  </si>
+  <si>
+    <t>0.979</t>
+  </si>
+  <si>
+    <t>0.865</t>
+  </si>
+  <si>
+    <t>0.767</t>
+  </si>
+  <si>
+    <t>0.155</t>
+  </si>
+  <si>
+    <t>0.111</t>
+  </si>
+  <si>
+    <t>0.180</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>3.469</t>
+  </si>
+  <si>
+    <t>3.933</t>
+  </si>
+  <si>
+    <t>0.717</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>2827</t>
+  </si>
+  <si>
+    <t>29.144</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>0.921</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>0.630</t>
+  </si>
+  <si>
+    <t>1.444</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>0.241</t>
+  </si>
+  <si>
+    <t>0.244</t>
+  </si>
+  <si>
+    <t>0.275</t>
+  </si>
+  <si>
+    <t>0.258</t>
+  </si>
+  <si>
+    <t>0.368</t>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t>3.756</t>
+  </si>
+  <si>
+    <t>3.125</t>
+  </si>
+  <si>
     <t>0.689</t>
   </si>
   <si>
-    <t>Clustering Metrics</t>
-  </si>
-  <si>
-    <t>Silhouette Score</t>
-  </si>
-  <si>
-    <t>0.182</t>
-  </si>
-  <si>
-    <t>0.157</t>
-  </si>
-  <si>
-    <t>Flat Silhouette Score</t>
-  </si>
-  <si>
-    <t>0.181</t>
-  </si>
-  <si>
-    <t>0.159</t>
-  </si>
-  <si>
-    <t>Average Within-Cluster Similarity</t>
-  </si>
-  <si>
-    <t>0.419</t>
-  </si>
-  <si>
-    <t>0.411</t>
-  </si>
-  <si>
-    <t>Davies-Bouldin Index</t>
-  </si>
-  <si>
-    <t>3.187</t>
-  </si>
-  <si>
-    <t>3.390</t>
-  </si>
-  <si>
-    <t>0.686</t>
-  </si>
-  <si>
-    <t>0.508</t>
-  </si>
-  <si>
-    <t>Stats</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>1923</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>num_chains</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>avg_chain_length</t>
-  </si>
-  <si>
-    <t>min_chain_length</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>max_chain_length</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>num_sentences</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>num_words</t>
-  </si>
-  <si>
-    <t>4250</t>
-  </si>
-  <si>
-    <t>avg_sentence_length</t>
-  </si>
-  <si>
-    <t>36.957</t>
-  </si>
-  <si>
-    <t>min_sentence_length</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>max_sentence_length</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>num_clusters</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>0.951</t>
-  </si>
-  <si>
-    <t>0.941</t>
-  </si>
-  <si>
-    <t>0.650</t>
-  </si>
-  <si>
-    <t>0.671</t>
-  </si>
-  <si>
-    <t>0.644</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>0.658</t>
-  </si>
-  <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>0.657</t>
-  </si>
-  <si>
-    <t>0.632</t>
-  </si>
-  <si>
-    <t>0.688</t>
-  </si>
-  <si>
-    <t>0.626</t>
-  </si>
-  <si>
-    <t>0.609</t>
-  </si>
-  <si>
-    <t>1.513</t>
-  </si>
-  <si>
-    <t>1.359</t>
-  </si>
-  <si>
-    <t>0.981</t>
-  </si>
-  <si>
-    <t>0.946</t>
-  </si>
-  <si>
-    <t>0.863</t>
-  </si>
-  <si>
-    <t>0.700</t>
-  </si>
-  <si>
-    <t>0.764</t>
-  </si>
-  <si>
-    <t>0.690</t>
-  </si>
-  <si>
-    <t>0.162</t>
-  </si>
-  <si>
-    <t>0.156</t>
-  </si>
-  <si>
-    <t>0.127</t>
-  </si>
-  <si>
-    <t>0.155</t>
-  </si>
-  <si>
-    <t>0.475</t>
-  </si>
-  <si>
-    <t>0.432</t>
-  </si>
-  <si>
-    <t>3.518</t>
-  </si>
-  <si>
-    <t>3.605</t>
-  </si>
-  <si>
-    <t>0.734</t>
-  </si>
-  <si>
-    <t>0.525</t>
-  </si>
-  <si>
-    <t>4355</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>7562</t>
-  </si>
-  <si>
-    <t>43.460</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>0.843</t>
-  </si>
-  <si>
-    <t>0.859</t>
-  </si>
-  <si>
-    <t>0.643</t>
-  </si>
-  <si>
-    <t>0.683</t>
-  </si>
-  <si>
-    <t>0.604</t>
-  </si>
-  <si>
-    <t>0.637</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.618</t>
-  </si>
-  <si>
-    <t>0.577</t>
-  </si>
-  <si>
-    <t>0.628</t>
-  </si>
-  <si>
-    <t>0.646</t>
-  </si>
-  <si>
-    <t>0.680</t>
-  </si>
-  <si>
-    <t>0.639</t>
-  </si>
-  <si>
-    <t>0.596</t>
-  </si>
-  <si>
-    <t>3.146</t>
-  </si>
-  <si>
-    <t>2.389</t>
-  </si>
-  <si>
-    <t>0.930</t>
-  </si>
-  <si>
-    <t>0.865</t>
-  </si>
-  <si>
-    <t>0.841</t>
-  </si>
-  <si>
-    <t>0.697</t>
-  </si>
-  <si>
-    <t>0.762</t>
-  </si>
-  <si>
-    <t>0.220</t>
-  </si>
-  <si>
-    <t>0.136</t>
-  </si>
-  <si>
-    <t>0.131</t>
-  </si>
-  <si>
-    <t>0.110</t>
-  </si>
-  <si>
-    <t>0.422</t>
-  </si>
-  <si>
-    <t>0.469</t>
-  </si>
-  <si>
-    <t>3.638</t>
-  </si>
-  <si>
-    <t>3.028</t>
-  </si>
-  <si>
-    <t>0.742</t>
-  </si>
-  <si>
-    <t>0.542</t>
-  </si>
-  <si>
-    <t>4166</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>41</t>
+    <t>2635</t>
   </si>
   <si>
     <t>54</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>5530</t>
-  </si>
-  <si>
-    <t>42.868</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>0.903</t>
-  </si>
-  <si>
-    <t>0.905</t>
-  </si>
-  <si>
-    <t>0.654</t>
-  </si>
-  <si>
-    <t>0.603</t>
-  </si>
-  <si>
-    <t>0.589</t>
-  </si>
-  <si>
-    <t>0.607</t>
-  </si>
-  <si>
-    <t>0.549</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>0.627</t>
-  </si>
-  <si>
-    <t>0.593</t>
-  </si>
-  <si>
-    <t>1.824</t>
-  </si>
-  <si>
-    <t>1.500</t>
-  </si>
-  <si>
-    <t>0.961</t>
-  </si>
-  <si>
-    <t>0.910</t>
-  </si>
-  <si>
-    <t>0.847</t>
-  </si>
-  <si>
-    <t>0.673</t>
-  </si>
-  <si>
-    <t>0.766</t>
-  </si>
-  <si>
-    <t>0.636</t>
-  </si>
-  <si>
-    <t>0.176</t>
-  </si>
-  <si>
-    <t>0.183</t>
-  </si>
-  <si>
-    <t>0.166</t>
-  </si>
-  <si>
-    <t>0.179</t>
-  </si>
-  <si>
-    <t>0.458</t>
-  </si>
-  <si>
-    <t>0.433</t>
-  </si>
-  <si>
-    <t>2.825</t>
-  </si>
-  <si>
-    <t>3.015</t>
-  </si>
-  <si>
-    <t>0.714</t>
-  </si>
-  <si>
-    <t>0.523</t>
-  </si>
-  <si>
-    <t>3611</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>3417</t>
-  </si>
-  <si>
-    <t>36.742</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>103</t>
+    <t>78</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>28.295</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.676</t>
+  </si>
+  <si>
+    <t>0.684</t>
+  </si>
+  <si>
+    <t>0.642</t>
+  </si>
+  <si>
+    <t>1.737</t>
+  </si>
+  <si>
+    <t>0.887</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>0.297</t>
+  </si>
+  <si>
+    <t>0.317</t>
+  </si>
+  <si>
+    <t>0.386</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>3.102</t>
+  </si>
+  <si>
+    <t>3.386</t>
+  </si>
+  <si>
+    <t>0.664</t>
+  </si>
+  <si>
+    <t>0.679</t>
+  </si>
+  <si>
+    <t>2581</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>3697</t>
+  </si>
+  <si>
+    <t>37.343</t>
+  </si>
+  <si>
+    <t>0.950</t>
+  </si>
+  <si>
+    <t>0.660</t>
+  </si>
+  <si>
+    <t>0.610</t>
+  </si>
+  <si>
+    <t>0.585</t>
+  </si>
+  <si>
+    <t>0.622</t>
+  </si>
+  <si>
+    <t>1.277</t>
+  </si>
+  <si>
+    <t>0.984</t>
   </si>
   <si>
     <t>0.897</t>
   </si>
   <si>
-    <t>0.663</t>
-  </si>
-  <si>
-    <t>0.587</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>0.630</t>
-  </si>
-  <si>
-    <t>1.488</t>
-  </si>
-  <si>
-    <t>1.419</t>
-  </si>
-  <si>
-    <t>0.970</t>
-  </si>
-  <si>
-    <t>0.900</t>
-  </si>
-  <si>
-    <t>0.888</t>
-  </si>
-  <si>
-    <t>0.668</t>
-  </si>
-  <si>
-    <t>0.802</t>
-  </si>
-  <si>
-    <t>0.123</t>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.187</t>
   </si>
   <si>
     <t>0.210</t>
   </si>
   <si>
-    <t>0.151</t>
-  </si>
-  <si>
-    <t>0.217</t>
-  </si>
-  <si>
-    <t>0.407</t>
-  </si>
-  <si>
-    <t>0.486</t>
-  </si>
-  <si>
-    <t>3.363</t>
-  </si>
-  <si>
-    <t>2.844</t>
+    <t>0.202</t>
+  </si>
+  <si>
+    <t>0.330</t>
+  </si>
+  <si>
+    <t>0.420</t>
+  </si>
+  <si>
+    <t>1.979</t>
+  </si>
+  <si>
+    <t>3.017</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>0.704</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>3639</t>
+  </si>
+  <si>
+    <t>28.209</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>0.672</t>
+  </si>
+  <si>
+    <t>0.574</t>
   </si>
   <si>
     <t>0.550</t>
   </si>
   <si>
-    <t>6389</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>32.820</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>0.942</t>
-  </si>
-  <si>
-    <t>0.940</t>
-  </si>
-  <si>
-    <t>0.580</t>
-  </si>
-  <si>
-    <t>0.566</t>
-  </si>
-  <si>
-    <t>0.608</t>
-  </si>
-  <si>
-    <t>0.545</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>1.347</t>
-  </si>
-  <si>
-    <t>1.228</t>
-  </si>
-  <si>
-    <t>0.979</t>
-  </si>
-  <si>
-    <t>0.647</t>
-  </si>
-  <si>
-    <t>0.767</t>
-  </si>
-  <si>
-    <t>0.139</t>
-  </si>
-  <si>
-    <t>0.111</t>
-  </si>
-  <si>
-    <t>0.154</t>
-  </si>
-  <si>
-    <t>0.462</t>
-  </si>
-  <si>
-    <t>0.477</t>
-  </si>
-  <si>
-    <t>3.469</t>
-  </si>
-  <si>
-    <t>3.045</t>
-  </si>
-  <si>
-    <t>0.717</t>
-  </si>
-  <si>
-    <t>0.538</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>2827</t>
-  </si>
-  <si>
-    <t>29.144</t>
-  </si>
-  <si>
-    <t>0.921</t>
-  </si>
-  <si>
-    <t>0.918</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.698</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.669</t>
-  </si>
-  <si>
-    <t>1.444</t>
-  </si>
-  <si>
-    <t>1.418</t>
-  </si>
-  <si>
-    <t>0.975</t>
-  </si>
-  <si>
-    <t>0.922</t>
-  </si>
-  <si>
-    <t>0.716</t>
-  </si>
-  <si>
-    <t>0.241</t>
-  </si>
-  <si>
-    <t>0.197</t>
-  </si>
-  <si>
-    <t>0.275</t>
-  </si>
-  <si>
-    <t>0.247</t>
-  </si>
-  <si>
-    <t>0.368</t>
-  </si>
-  <si>
-    <t>0.372</t>
-  </si>
-  <si>
-    <t>3.756</t>
-  </si>
-  <si>
-    <t>0.460</t>
-  </si>
-  <si>
-    <t>2635</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>28.295</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>0.917</t>
-  </si>
-  <si>
-    <t>0.919</t>
-  </si>
-  <si>
-    <t>0.685</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.694</t>
-  </si>
-  <si>
-    <t>0.672</t>
-  </si>
-  <si>
-    <t>0.676</t>
-  </si>
-  <si>
-    <t>0.681</t>
-  </si>
-  <si>
-    <t>0.684</t>
-  </si>
-  <si>
-    <t>0.642</t>
-  </si>
-  <si>
-    <t>0.667</t>
-  </si>
-  <si>
-    <t>1.737</t>
-  </si>
-  <si>
-    <t>1.707</t>
-  </si>
-  <si>
-    <t>0.887</t>
-  </si>
-  <si>
-    <t>0.845</t>
-  </si>
-  <si>
-    <t>0.732</t>
-  </si>
-  <si>
-    <t>0.297</t>
-  </si>
-  <si>
-    <t>0.245</t>
-  </si>
-  <si>
-    <t>0.386</t>
-  </si>
-  <si>
-    <t>0.299</t>
-  </si>
-  <si>
-    <t>0.415</t>
-  </si>
-  <si>
-    <t>0.393</t>
-  </si>
-  <si>
-    <t>3.102</t>
-  </si>
-  <si>
-    <t>3.135</t>
-  </si>
-  <si>
-    <t>0.664</t>
-  </si>
-  <si>
-    <t>0.520</t>
-  </si>
-  <si>
-    <t>2581</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>3697</t>
-  </si>
-  <si>
-    <t>37.343</t>
-  </si>
-  <si>
-    <t>0.950</t>
-  </si>
-  <si>
-    <t>0.953</t>
-  </si>
-  <si>
-    <t>0.660</t>
+    <t>0.621</t>
+  </si>
+  <si>
+    <t>1.284</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>0.874</t>
+  </si>
+  <si>
+    <t>0.771</t>
+  </si>
+  <si>
+    <t>0.173</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.416</t>
+  </si>
+  <si>
+    <t>3.355</t>
+  </si>
+  <si>
+    <t>3.516</t>
+  </si>
+  <si>
+    <t>0.678</t>
   </si>
   <si>
     <t>0.682</t>
-  </si>
-  <si>
-    <t>0.610</t>
-  </si>
-  <si>
-    <t>0.638</t>
-  </si>
-  <si>
-    <t>0.585</t>
-  </si>
-  <si>
-    <t>0.622</t>
-  </si>
-  <si>
-    <t>0.640</t>
-  </si>
-  <si>
-    <t>1.277</t>
-  </si>
-  <si>
-    <t>1.217</t>
-  </si>
-  <si>
-    <t>0.984</t>
-  </si>
-  <si>
-    <t>0.955</t>
-  </si>
-  <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>0.755</t>
-  </si>
-  <si>
-    <t>0.158</t>
-  </si>
-  <si>
-    <t>0.330</t>
-  </si>
-  <si>
-    <t>1.979</t>
-  </si>
-  <si>
-    <t>3.198</t>
-  </si>
-  <si>
-    <t>0.611</t>
-  </si>
-  <si>
-    <t>0.512</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>3639</t>
-  </si>
-  <si>
-    <t>28.209</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>0.965</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.674</t>
-  </si>
-  <si>
-    <t>0.648</t>
-  </si>
-  <si>
-    <t>0.621</t>
-  </si>
-  <si>
-    <t>0.661</t>
-  </si>
-  <si>
-    <t>1.284</t>
-  </si>
-  <si>
-    <t>1.218</t>
-  </si>
-  <si>
-    <t>0.986</t>
-  </si>
-  <si>
-    <t>0.963</t>
-  </si>
-  <si>
-    <t>0.874</t>
-  </si>
-  <si>
-    <t>0.771</t>
-  </si>
-  <si>
-    <t>0.173</t>
-  </si>
-  <si>
-    <t>0.170</t>
-  </si>
-  <si>
-    <t>0.148</t>
-  </si>
-  <si>
-    <t>0.482</t>
-  </si>
-  <si>
-    <t>3.355</t>
-  </si>
-  <si>
-    <t>3.132</t>
-  </si>
-  <si>
-    <t>0.678</t>
-  </si>
-  <si>
-    <t>0.581</t>
   </si>
   <si>
     <t>1106</t>
@@ -1469,14 +1271,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1486,12 +1285,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1527,281 +1326,281 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1823,14 +1622,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1840,12 +1636,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1878,284 +1674,284 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>343</v>
+        <v>278</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>344</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>270</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>345</v>
+        <v>279</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>344</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>352</v>
+        <v>286</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>352</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>333</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>338</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>334</v>
+        <v>272</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>350</v>
+        <v>284</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>339</v>
+        <v>275</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>340</v>
+        <v>275</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>341</v>
+        <v>276</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>179</v>
+        <v>276</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>342</v>
+        <v>277</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>195</v>
+        <v>277</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2177,14 +1973,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2194,12 +1987,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2232,284 +2025,284 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2531,14 +2324,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2548,12 +2338,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2586,284 +2376,284 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2885,14 +2675,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2902,12 +2689,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2940,284 +2727,284 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3239,14 +3026,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3256,12 +3040,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -3294,284 +3078,284 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>155</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>196</v>
+        <v>8</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3593,14 +3377,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3610,12 +3391,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -3648,284 +3429,284 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3947,14 +3728,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3964,12 +3742,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4002,284 +3780,284 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>257</v>
+        <v>121</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4301,14 +4079,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4318,12 +4093,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4356,284 +4131,284 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>276</v>
+        <v>224</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>292</v>
+        <v>189</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>301</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>277</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>294</v>
+        <v>236</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>303</v>
+        <v>244</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>303</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4655,14 +4430,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4672,12 +4444,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4710,284 +4482,284 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>137</v>
+        <v>259</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>322</v>
+        <v>260</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>323</v>
+        <v>261</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>311</v>
+        <v>249</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>324</v>
+        <v>262</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>325</v>
+        <v>263</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>311</v>
+        <v>249</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>72</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>313</v>
+        <v>66</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>316</v>
+        <v>252</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>317</v>
+        <v>252</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>330</v>
+        <v>268</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>330</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>319</v>
+        <v>168</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>107</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/usercode/experiments/experiments.xlsx
+++ b/usercode/experiments/experiments.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="00. Doc 0001" sheetId="1" r:id="rId1"/>
+    <sheet name="00. Doc 0005" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,79 +19,76 @@
     <t>Chain Metrics</t>
   </si>
   <si>
-    <t>test2</t>
+    <t>mpnet</t>
   </si>
   <si>
     <t>Average Within-Chain Similarity</t>
   </si>
   <si>
-    <t>0.837</t>
+    <t>0.918</t>
   </si>
   <si>
     <t>Average Within-Chain Similarity (len &gt;= 2)</t>
   </si>
   <si>
-    <t>0.675</t>
+    <t>0.702</t>
   </si>
   <si>
     <t>Average Within-Chain Similarity (len &gt;= 3)</t>
   </si>
   <si>
-    <t>0.666</t>
+    <t>0.658</t>
   </si>
   <si>
     <t>Average Within-Chain Similarity (len &gt;= 4)</t>
   </si>
   <si>
-    <t>0.636</t>
+    <t>0.617</t>
   </si>
   <si>
     <t>Average Within-Chain Similarity (len &gt;= 5)</t>
   </si>
   <si>
-    <t>0.628</t>
+    <t>0.590</t>
   </si>
   <si>
     <t>Average Within-Chain Similarity (len &gt;= 6)</t>
   </si>
   <si>
-    <t>0.610</t>
-  </si>
-  <si>
     <t>Average Within-Chain Similarity (len = 4)</t>
   </si>
   <si>
-    <t>0.668</t>
+    <t>0.657</t>
   </si>
   <si>
     <t>Average Neighbor Chain Distance</t>
   </si>
   <si>
-    <t>0.558</t>
+    <t>0.659</t>
   </si>
   <si>
     <t>Average Chain Length</t>
   </si>
   <si>
-    <t>3.033</t>
+    <t>1.686</t>
   </si>
   <si>
     <t>Average Similarity to Centroid</t>
   </si>
   <si>
-    <t>0.940</t>
+    <t>0.970</t>
   </si>
   <si>
     <t>Average Similarity to Centroid (len &gt;= 2)</t>
   </si>
   <si>
-    <t>0.881</t>
+    <t>0.890</t>
   </si>
   <si>
     <t>Average Similarity to Centroid (len &gt;= 6)</t>
   </si>
   <si>
-    <t>0.795</t>
+    <t>0.807</t>
   </si>
   <si>
     <t>Clustering Metrics</t>
@@ -100,28 +97,28 @@
     <t>Silhouette Score</t>
   </si>
   <si>
-    <t>0.297</t>
+    <t>0.257</t>
   </si>
   <si>
     <t>Flat Silhouette Score</t>
   </si>
   <si>
-    <t>0.227</t>
+    <t>0.271</t>
   </si>
   <si>
     <t>Average Within-Cluster Similarity</t>
   </si>
   <si>
-    <t>0.625</t>
+    <t>0.407</t>
   </si>
   <si>
     <t>Davies-Bouldin Index</t>
   </si>
   <si>
-    <t>3.176</t>
-  </si>
-  <si>
-    <t>0.829</t>
+    <t>1.747</t>
+  </si>
+  <si>
+    <t>0.662</t>
   </si>
   <si>
     <t>Stats</t>
@@ -130,61 +127,64 @@
     <t>id</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>num_chains</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>avg_chain_length</t>
+  </si>
+  <si>
+    <t>min_chain_length</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>num_chains</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>avg_chain_length</t>
-  </si>
-  <si>
-    <t>min_chain_length</t>
-  </si>
-  <si>
     <t>max_chain_length</t>
   </si>
   <si>
-    <t>23</t>
+    <t>9</t>
   </si>
   <si>
     <t>num_sentences</t>
   </si>
   <si>
-    <t>91</t>
+    <t>86</t>
   </si>
   <si>
     <t>num_words</t>
   </si>
   <si>
-    <t>2522</t>
+    <t>3519</t>
   </si>
   <si>
     <t>avg_sentence_length</t>
   </si>
   <si>
-    <t>27.714</t>
+    <t>40.919</t>
   </si>
   <si>
     <t>min_sentence_length</t>
   </si>
   <si>
-    <t>16</t>
+    <t>15</t>
   </si>
   <si>
     <t>max_sentence_length</t>
   </si>
   <si>
-    <t>86</t>
+    <t>176</t>
   </si>
   <si>
     <t>num_clusters</t>
@@ -576,11 +576,11 @@
       </c>
       <c r="B1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -626,16 +626,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -646,16 +646,16 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -666,16 +666,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -686,16 +686,16 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -703,7 +703,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>45</v>
@@ -714,10 +714,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>47</v>
@@ -728,10 +728,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>49</v>
@@ -742,10 +742,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>51</v>
@@ -756,10 +756,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>53</v>
@@ -770,10 +770,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>55</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>57</v>
